--- a/data/trans_dic/P5_2-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P5_2-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que disfruta de jardín en su vivienda</t>
+          <t>Población que disfruta de jardín en su vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,03%</t>
+          <t>15,45%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,31%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,28%</t>
+          <t>12,56%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,53%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>13,88%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,35; 17,71</t>
+          <t>8,33; 18,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,6; 21,01</t>
+          <t>10,01; 21,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,55; 14,34</t>
+          <t>8,0; 17,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,34; 15,91</t>
+          <t>8,65; 17,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,99; 13,96</t>
+          <t>9,24; 16,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,29; 16,29</t>
+          <t>10,02; 18,03</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>22,08%</t>
+          <t>27,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>24,74%</t>
+          <t>27,5%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,63%</t>
+          <t>13,39%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>13,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,54%</t>
+          <t>19,84%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>19,82%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,17; 28,36</t>
+          <t>19,96; 35,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,44; 34,71</t>
+          <t>20,06; 35,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,85; 18,02</t>
+          <t>8,77; 19,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,64; 17,99</t>
+          <t>8,57; 19,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,44; 21,43</t>
+          <t>15,64; 24,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,13; 24,18</t>
+          <t>15,61; 24,72</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>22,64%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,94%</t>
+          <t>16,64%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>15,35%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>20,85%</t>
+          <t>14,97%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>21,6%</t>
+          <t>16,15%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>21,93%</t>
+          <t>15,81%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,77; 36,58</t>
+          <t>4,13; 35,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,65; 37,0</t>
+          <t>4,2; 35,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,52; 31,52</t>
+          <t>6,77; 30,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,49; 31,47</t>
+          <t>6,46; 30,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,38; 30,72</t>
+          <t>7,88; 27,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,46; 30,54</t>
+          <t>7,68; 27,24</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>19,32%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,87%</t>
+          <t>20,44%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,02%</t>
+          <t>13,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>15,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>16,5%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,56; 21,09</t>
+          <t>15,05; 24,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,2; 24,77</t>
+          <t>15,89; 25,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,17; 15,27</t>
+          <t>10,03; 16,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,55; 15,85</t>
+          <t>10,22; 16,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,22; 17,37</t>
+          <t>13,44; 18,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,15; 19,34</t>
+          <t>13,9; 19,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que disfruta de jardín en su vivienda (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>48560</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>66450</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>52542</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>63917</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>101102</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>130367</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>30459; 69150</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>43038; 92734</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>34839; 76931</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>44029; 91491</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>74035; 134735</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>94071; 169258</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>83007</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>98831</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>46891</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>56696</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>129897</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>155527</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>60828; 108354</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>72089; 128119</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>30709; 67978</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>36455; 83350</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>102433; 160458</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>122481; 194010</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>14364</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>16934</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>12685</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>15143</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>27048</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>32077</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3503; 30325</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4278; 36292</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5593; 25525</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6533; 30839</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>13188; 45641</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>15576; 55273</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>145930</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>182216</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>112117</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>135755</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>258047</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>317971</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>113704; 183090</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>141655; 229127</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>87059; 145797</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>105839; 175287</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>218183; 306941</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>267831; 382251</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>